--- a/v2-Implementation/Data/Data Template.xlsx
+++ b/v2-Implementation/Data/Data Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,32 +25,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
   <si>
     <t xml:space="preserve">Please go through each sheet and fill out all the data</t>
   </si>
   <si>
-    <t xml:space="preserve"> - You might need to add new rows in column to add data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - When you add new items in the “indices data” sheet, you must create new combinations in all other sheets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Examples of how it should be done are there, with the data we were able to get so far!</t>
+    <t xml:space="preserve">- In the "indices data" sheet, please add new items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- rest of the sheet you simply need to fill out the combinations</t>
   </si>
   <si>
     <t xml:space="preserve">REQUIRED DATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Add items to columns as necessary. 
-    - Time horizon represents how far patients can be scheduled
-    - Tracked wait time represents the maximum waitlist length (people who waited longer are counted as max wait time)
-    - Resources represents any resources you want to consider in the model
-    - Complexity of a patient represents how difficult their operation will be and how many resources it will take 
-            (items lower on the list are higher complexity, and patients can only move to complexities below on the list)
-    - Priority of a patient
-            (items lower on the list are higher priorities, and patients can only move to priorities below on the list)
-    - Surgery types represents any types of surgeries you want to consider</t>
+    <t xml:space="preserve">This sheet already contains data we already discussed. 
+PLEASE ENSURE IT INCLUDES ALL THE ELEMENTS YOU WANT TO CONSIDER.
+If anything is missing, simply add it to the item list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicates how far patients can be scheduled in weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicates how far on the wait list patients are tracked. (If patients exceed this limit, they simply stay at limit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of resources we want to consider</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Types of patient complexities we want to consider 
+(these define resource usage)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(please sort it as low to high priority)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of patient priorities we want to consider 
+(please sort it as low to high priority)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery types to consider</t>
   </si>
   <si>
     <t xml:space="preserve">Time Horizon (t)
@@ -109,14 +142,21 @@
     <t xml:space="preserve">6. SPINE POSTERIOR DISCECTOMY LUMBAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Add row for each resource in the “Indices Data”
-    - Carry over indicates whether resources can be used in the next period or if they perish
-    - Expected number of each resources per week
-    - Deviation represents the uniform distribution from the expected number of units. 
-            For example: We expect to have space for 10 admissions per week on average, with fluctuations between 8 and 12.
-            The fluctuation follows uniform distribution and would be written as 10 expected, -2,2 deviation
-            The average of deviation must be 0
-            </t>
+    <t xml:space="preserve">Please fill out the yellow boxes.
+For some combinations, we already have some ideas. So please confirm those.
+OR_Time indicates how many hours of OR rooms you have per week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry over indicates whether resources can be used in the next period or if they perish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected number of each resources per week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deviation represents the uniform distribution from the expected number of units. 
+            For example: We expect to have space for 10 admissions per week on average,                  with fluctuations between 8 and 12.
+            The fluctuation follows uniform distribution and would be written as 10                            expected, -2,2 deviation
+            The average of deviation must be 0</t>
   </si>
   <si>
     <t xml:space="preserve">Resource Type </t>
@@ -215,7 +255,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,6 +308,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -331,7 +400,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,11 +417,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,6 +447,14 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -480,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,9 +586,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -525,13 +604,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.08"/>
@@ -543,7 +622,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -551,9 +630,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="55.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -561,229 +640,190 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="95.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="n">
-        <v>0</v>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="F9" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="F10" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="B26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
@@ -804,93 +844,107 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="144.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="224.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12" t="n">
+      <c r="D5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -914,11 +968,11 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.73"/>
@@ -926,7 +980,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -934,325 +988,325 @@
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="15" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="15" t="n">
         <f aca="false">D4*1.1</f>
         <v>0.66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="n">
         <f aca="false">D5*1.1</f>
         <v>3.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="15" t="n">
         <f aca="false">D8*1.1</f>
         <v>1.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15" t="n">
         <f aca="false">D9*1.1</f>
         <v>6.05</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="15" t="n">
         <f aca="false">D12*1.1</f>
         <v>1.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="15" t="n">
         <f aca="false">D13*1.1</f>
         <v>4.4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="15" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="15" t="n">
         <f aca="false">D16*1.1</f>
         <v>1.1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="15" t="n">
         <f aca="false">D17*1.1</f>
         <v>4.4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" s="15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="15" t="n">
         <f aca="false">D20*1.1</f>
         <v>1.1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" s="15" t="n">
         <f aca="false">D21*1.1</f>
         <v>3.3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
@@ -1260,13 +1314,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2</v>
@@ -1274,30 +1328,30 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="15" t="n">
         <f aca="false">D24*1.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="15" t="n">
         <f aca="false">D25*1.1</f>
         <v>2.2</v>
       </c>
@@ -1324,21 +1378,21 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1346,35 +1400,35 @@
     </row>
     <row r="2" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
@@ -1382,13 +1436,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -1396,13 +1450,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -1410,13 +1464,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -1424,13 +1478,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -1438,13 +1492,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
@@ -1452,13 +1506,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -1466,13 +1520,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1480,13 +1534,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -1494,13 +1548,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -1508,13 +1562,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -1522,13 +1576,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -1536,13 +1590,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -1550,13 +1604,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
@@ -1564,13 +1618,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
@@ -1578,13 +1632,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -1592,13 +1646,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -1606,13 +1660,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
@@ -1620,13 +1674,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
@@ -1634,13 +1688,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -1648,13 +1702,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5</v>
@@ -1662,13 +1716,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0</v>
@@ -1676,13 +1730,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
@@ -1690,13 +1744,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
@@ -1724,11 +1778,11 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.98"/>
@@ -1738,7 +1792,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1750,749 +1804,749 @@
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>47</v>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>40</v>
+      <c r="F4" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>40</v>
+      <c r="F5" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>13</v>
+      <c r="C6" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>40</v>
+      <c r="F6" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
+      <c r="C7" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="E7" s="19" t="n">
         <v>0.1</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>40</v>
+      <c r="F7" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="H7" s="19" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
+      <c r="C8" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>40</v>
+      <c r="F8" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="H8" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B9" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>13</v>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" s="19" t="n">
         <v>0.07</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>40</v>
+      <c r="F9" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="H9" s="19" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>17</v>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>41</v>
+      <c r="F10" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>41</v>
+      <c r="F11" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="H11" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>41</v>
+      <c r="F12" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19" t="n">
         <v>0.1</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>41</v>
+      <c r="F13" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="H13" s="19" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E14" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>41</v>
+      <c r="F14" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="H14" s="19" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="E15" s="19" t="n">
         <v>0.07</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>41</v>
+      <c r="F15" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="H15" s="19" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="16"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="16"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
+      <c r="H56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="H57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="H59" s="16"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="H60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="H61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="H62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="H63" s="16"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="H63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="H64" s="16"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="H65" s="16"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="H66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="H67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="H68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="H69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="H70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
